--- a/components_.xlsx
+++ b/components_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellar\pv-opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAD77680-1E19-4E8F-8AAE-BF674639A569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A26E1D-1C52-48B4-B209-9A13670B8D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="816" windowWidth="20616" windowHeight="7824" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2808" windowWidth="20616" windowHeight="7824" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="building" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="building" localSheetId="0">building!$A$1:$E$2</definedName>
     <definedName name="consumption" localSheetId="5">consumption!$A$1:$E$2</definedName>
-    <definedName name="equipment" localSheetId="2">equipment!$A$1:$I$3</definedName>
+    <definedName name="equipment" localSheetId="2">equipment!$A$1:$H$3</definedName>
     <definedName name="location" localSheetId="1">location!$A$1:$H$3</definedName>
     <definedName name="production" localSheetId="4">production!$A$1:$E$2</definedName>
     <definedName name="solution" localSheetId="6">solution!$A$1:$F$4</definedName>
@@ -73,7 +73,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{4D555970-62F0-4443-87EB-4C97CC0B844B}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
     <author>Danila Valko</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{17A664F7-2B60-4CEC-B7AF-CD50091E8FED}">
       <text>
         <r>
           <rPr>
@@ -317,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>uuid</t>
   </si>
@@ -325,15 +325,9 @@
     <t>type</t>
   </si>
   <si>
-    <t>battery_capacity_Ah</t>
-  </si>
-  <si>
     <t>battery_energy_Wh</t>
   </si>
   <si>
-    <t>battery_voltage</t>
-  </si>
-  <si>
     <t>battery_discharge_factor</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>pv_loss</t>
   </si>
   <si>
-    <t>pv_voltage</t>
-  </si>
-  <si>
     <t>pv_count</t>
   </si>
   <si>
@@ -430,12 +421,6 @@
     <t>(6528, 3294)</t>
   </si>
   <si>
-    <t>angle</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
     <t>size_m</t>
   </si>
   <si>
@@ -469,19 +454,22 @@
     <t>noname</t>
   </si>
   <si>
-    <t>year?</t>
-  </si>
-  <si>
-    <t>Slope [°]*</t>
-  </si>
-  <si>
-    <t>Azimuth [°]*</t>
-  </si>
-  <si>
-    <t>ommit</t>
-  </si>
-  <si>
-    <t>?</t>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>azimuth</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>b2</t>
   </si>
 </sst>
 </file>
@@ -1387,7 +1375,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1420,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1439,11 +1427,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1463,30 +1450,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1495,24 +1482,24 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1521,32 +1508,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1558,10 +1532,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1572,11 +1546,10 @@
     <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1584,36 +1557,33 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1622,27 +1592,24 @@
         <v>500</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G2">
         <v>14</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -1651,24 +1618,13 @@
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>14</v>
       </c>
       <c r="H3">
-        <v>48</v>
-      </c>
-      <c r="I3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1679,25 +1635,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1716,71 +1670,45 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C2" s="1">
+        <v>4800</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2880</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
-        <v>100</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4800</v>
-      </c>
-      <c r="E2" s="1">
-        <v>48</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1">
-        <v>60</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2880</v>
-      </c>
-      <c r="E3" s="1">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1795,7 +1723,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,24 +1740,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1838,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1851,8 +1779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1869,24 +1797,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>2016</v>
@@ -1895,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1908,8 +1836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1927,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
